--- a/excel_files/inaccurates_geocoded.xlsx
+++ b/excel_files/inaccurates_geocoded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for-db/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB455A86-A55B-3544-8E19-C67A10D31213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C9B11-80AF-4F4F-A758-AF4F2FA0A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>ADDENDUM_B_WORKSITE_ATTACHED</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>H-300-20108-494660</t>
-  </si>
-  <si>
-    <t>H-300-20114-511870</t>
   </si>
   <si>
     <t>agdatahr@agdataglobal.com</t>
@@ -373,6 +370,18 @@
   </si>
   <si>
     <t>(36.651745, -121.599444)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>H-300-20161-638892</t>
+  </si>
+  <si>
+    <t>coordinates</t>
   </si>
 </sst>
 </file>
@@ -406,12 +415,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -445,13 +460,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -793,14 +809,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="58" max="58" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="55" max="55" width="22" customWidth="1"/>
+    <col min="56" max="56" width="26.6640625" customWidth="1"/>
+    <col min="57" max="57" width="25.83203125" customWidth="1"/>
+    <col min="58" max="58" width="20.83203125" customWidth="1"/>
+    <col min="61" max="61" width="20.6640625" customWidth="1"/>
+    <col min="62" max="62" width="23.6640625" customWidth="1"/>
+    <col min="63" max="63" width="19.6640625" customWidth="1"/>
+    <col min="64" max="64" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
@@ -1014,22 +1038,22 @@
         <v>43973</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>17603525212</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2">
         <v>43997</v>
@@ -1041,37 +1065,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2">
         <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB2">
         <v>16</v>
@@ -1080,22 +1104,22 @@
         <v>17603525212</v>
       </c>
       <c r="AE2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" t="s">
         <v>98</v>
       </c>
-      <c r="AG2" t="s">
-        <v>99</v>
-      </c>
       <c r="AH2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI2" s="2">
         <v>43955</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK2">
         <v>65</v>
@@ -1110,37 +1134,37 @@
         <v>65</v>
       </c>
       <c r="AP2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR2" t="s">
         <v>104</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>105</v>
       </c>
       <c r="AS2">
         <v>14.77</v>
       </c>
       <c r="AU2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AV2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX2" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>99</v>
-      </c>
       <c r="AY2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BB2" t="b">
         <v>0</v>
@@ -1149,31 +1173,31 @@
         <v>1</v>
       </c>
       <c r="BD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE2" t="s">
         <v>108</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>109</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>110</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>111</v>
       </c>
       <c r="BI2">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK2" t="s">
         <v>112</v>
       </c>
-      <c r="BK2" t="s">
-        <v>113</v>
-      </c>
       <c r="BL2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1186,29 +1210,29 @@
       <c r="D3">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
+      <c r="E3" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F3" s="2">
         <v>43973</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>14182214761</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="2">
         <v>44018</v>
@@ -1220,34 +1244,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB3">
         <v>9</v>
@@ -1256,22 +1280,22 @@
         <v>14182214761</v>
       </c>
       <c r="AE3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" s="2">
         <v>43962</v>
       </c>
       <c r="AJ3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK3">
         <v>5</v>
@@ -1286,49 +1310,67 @@
         <v>5</v>
       </c>
       <c r="AP3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>104</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>105</v>
       </c>
       <c r="AS3">
         <v>14.29</v>
       </c>
       <c r="AU3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AV3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AX3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AY3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>114</v>
+      </c>
       <c r="BF3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH3" t="s">
         <v>110</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>111</v>
       </c>
+      <c r="BK3" t="s">
+        <v>114</v>
+      </c>
       <c r="BL3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/inaccurates_geocoded.xlsx
+++ b/excel_files/inaccurates_geocoded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C9B11-80AF-4F4F-A758-AF4F2FA0A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C1A28-C362-4D4A-B851-AB03818632A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>ADDENDUM_B_WORKSITE_ATTACHED</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>H-300-20108-494660</t>
+  </si>
+  <si>
+    <t>H-300-20114-511870</t>
   </si>
   <si>
     <t>agdatahr@agdataglobal.com</t>
@@ -370,18 +373,6 @@
   </si>
   <si>
     <t>(36.651745, -121.599444)</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>H-300-20161-638892</t>
-  </si>
-  <si>
-    <t>coordinates</t>
   </si>
 </sst>
 </file>
@@ -415,18 +406,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -460,14 +445,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,22 +793,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="55" max="55" width="22" customWidth="1"/>
-    <col min="56" max="56" width="26.6640625" customWidth="1"/>
-    <col min="57" max="57" width="25.83203125" customWidth="1"/>
-    <col min="58" max="58" width="20.83203125" customWidth="1"/>
-    <col min="61" max="61" width="20.6640625" customWidth="1"/>
-    <col min="62" max="62" width="23.6640625" customWidth="1"/>
-    <col min="63" max="63" width="19.6640625" customWidth="1"/>
-    <col min="64" max="64" width="21" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="55" max="58" width="8.83203125" customWidth="1"/>
+    <col min="61" max="64" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
@@ -1038,22 +1015,22 @@
         <v>43973</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>17603525212</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2">
         <v>43997</v>
@@ -1065,37 +1042,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W2">
         <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB2">
         <v>16</v>
@@ -1104,22 +1081,22 @@
         <v>17603525212</v>
       </c>
       <c r="AE2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI2" s="2">
         <v>43955</v>
       </c>
       <c r="AJ2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK2">
         <v>65</v>
@@ -1134,37 +1111,37 @@
         <v>65</v>
       </c>
       <c r="AP2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AQ2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AR2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AS2">
         <v>14.77</v>
       </c>
       <c r="AU2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AV2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AW2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AX2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AY2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BB2" t="b">
         <v>0</v>
@@ -1173,31 +1150,31 @@
         <v>1</v>
       </c>
       <c r="BD2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BE2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BH2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BI2">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BK2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BL2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1210,29 +1187,29 @@
       <c r="D3">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>43973</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <v>14182214761</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2">
         <v>44018</v>
@@ -1244,34 +1221,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB3">
         <v>9</v>
@@ -1280,22 +1257,22 @@
         <v>14182214761</v>
       </c>
       <c r="AE3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="2">
         <v>43962</v>
       </c>
       <c r="AJ3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK3">
         <v>5</v>
@@ -1310,67 +1287,49 @@
         <v>5</v>
       </c>
       <c r="AP3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AQ3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AR3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AS3">
         <v>14.29</v>
       </c>
       <c r="AU3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AY3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC3">
         <v>0</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH3" t="s">
         <v>111</v>
       </c>
-      <c r="BE3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BL3" t="s">
         <v>110</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/inaccurates_geocoded.xlsx
+++ b/excel_files/inaccurates_geocoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B30704-A09C-7446-BA76-5524739B9E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B099C-8B48-3045-8708-C7468F57BC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="277">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -217,56 +217,489 @@
     <t>housing_lat</t>
   </si>
   <si>
+    <t>790A_ADDENDUM_B_ATTACHED</t>
+  </si>
+  <si>
+    <t>790A_addendum_a_attached</t>
+  </si>
+  <si>
+    <t>ADDENDUM_B_HOUSING_ATTACHED</t>
+  </si>
+  <si>
+    <t>APPENDIX_A_ATTACHED</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS_1</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_CITY</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_COUNTRY</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_EMAIL</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PHONE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_PROVINCE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_AGENT_STATE</t>
+  </si>
+  <si>
+    <t>CASE_STATUS</t>
+  </si>
+  <si>
+    <t>CERTIFICATION_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>CRIMINAL_BACKGROUND_CHECK</t>
+  </si>
+  <si>
+    <t>DECISION_DATE</t>
+  </si>
+  <si>
+    <t>DEDUCTIONS_FROM_PAY</t>
+  </si>
+  <si>
+    <t>DRIVER_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>DRUG_SCREEN</t>
+  </si>
+  <si>
+    <t>EDUCATION_LEVEL</t>
+  </si>
+  <si>
+    <t>EMERGENCY_FILING</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS_1</t>
+  </si>
+  <si>
+    <t>EMPLOYER_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>EMPLOYER_COUNTRY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_MSPA_ATTACHED</t>
+  </si>
+  <si>
+    <t>EMPLOYER_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_ADDRESS1</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_ADDRESS2</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_CITY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_COUNTRY</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_EMAIL</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_JOB_TITLE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_LAST_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PHONE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PHONE_EXT</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_PROVINCE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_POC_STATE</t>
+  </si>
+  <si>
+    <t>EMPLOYER_PROVINCE</t>
+  </si>
+  <si>
+    <t>EXPOSURE_TO_TEMPERATURES</t>
+  </si>
+  <si>
+    <t>EXTENSIVE_PUSHING_PULLING</t>
+  </si>
+  <si>
+    <t>EXTENSIVE_SITTING_WALKING</t>
+  </si>
+  <si>
+    <t>FREQUENT_STOOPING_BENDING_OVER</t>
+  </si>
+  <si>
+    <t>FRIDAY_HOURS</t>
+  </si>
+  <si>
+    <t>H-2A_LABOR_CONTRACTOR</t>
+  </si>
+  <si>
+    <t>HOURLY_SCHEDULE_BEGIN</t>
+  </si>
+  <si>
+    <t>HOURLY_SCHEDULE_END</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_FEDERAL</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_LOCAL</t>
+  </si>
+  <si>
+    <t>HOUSING_COMPLIANCE_STATE</t>
+  </si>
+  <si>
+    <t>HOUSING_TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>JOB_ORDER_NUMBER</t>
+  </si>
+  <si>
+    <t>JOINT_EMPLOYER_APPENDIX_A_ATTACHED</t>
+  </si>
+  <si>
+    <t>LAWFIRM_NAME_BUSINESS_NAME</t>
+  </si>
+  <si>
+    <t>LIFTING_AMOUNT</t>
+  </si>
+  <si>
+    <t>LIFTING_REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>MEALS_CHARGED</t>
+  </si>
+  <si>
+    <t>MEALS_PROVIDED</t>
+  </si>
+  <si>
+    <t>MEAL_REIMBURSEMENT_MAXIMUM</t>
+  </si>
+  <si>
+    <t>MEAL_REIMBURSEMENT_MINIMUM</t>
+  </si>
+  <si>
+    <t>MONDAY_HOURS</t>
+  </si>
+  <si>
+    <t>NAICS_CODE</t>
+  </si>
+  <si>
+    <t>NAME_OF_HIGHEST_STATE_COURT</t>
+  </si>
+  <si>
+    <t>NATURE_OF_TEMPORARY_NEED</t>
+  </si>
+  <si>
+    <t>ON_CALL_REQUIREMENT</t>
+  </si>
+  <si>
+    <t>OTHER_FREQUENCY_OF_PAY</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PIECE_RATE_OFFER</t>
+  </si>
+  <si>
+    <t>PIECE_RATE_UNIT</t>
+  </si>
+  <si>
+    <t>PREPARER_BUSINESS_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_EMAIL</t>
+  </si>
+  <si>
+    <t>PREPARER_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_LAST_NAME</t>
+  </si>
+  <si>
+    <t>PREPARER_MIDDLE_INITIAL</t>
+  </si>
+  <si>
+    <t>REPETITIVE_MOVEMENTS</t>
+  </si>
+  <si>
+    <t>REQUESTED_BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>REQUESTED_END_DATE</t>
+  </si>
+  <si>
+    <t>SATURDAY_HOURS</t>
+  </si>
+  <si>
+    <t>SOC_CODE</t>
+  </si>
+  <si>
+    <t>SOC_TITLE</t>
+  </si>
+  <si>
+    <t>STATE_OF_HIGHEST_COURT</t>
+  </si>
+  <si>
+    <t>SUNDAY_HOURS</t>
+  </si>
+  <si>
+    <t>SUPERVISE_HOW_MANY</t>
+  </si>
+  <si>
+    <t>SUPERVISE_OTHER_EMP</t>
+  </si>
+  <si>
+    <t>SURETY_BOND_ATTACHED</t>
+  </si>
+  <si>
+    <t>THURSDAY_HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL_ADDENDUM_A_RECORDS</t>
+  </si>
+  <si>
+    <t>TOTAL_HOUSING_RECORDS</t>
+  </si>
+  <si>
+    <t>TOTAL_WORKERS_H-2A_CERTIFIED</t>
+  </si>
+  <si>
+    <t>TOTAL_WORKSITE_RECORDS</t>
+  </si>
+  <si>
+    <t>TRAINING_MONTHS</t>
+  </si>
+  <si>
+    <t>TUESDAY_HOURS</t>
+  </si>
+  <si>
+    <t>TYPE_OF_EMPLOYER_APPLICATION</t>
+  </si>
+  <si>
+    <t>TYPE_OF_REPRESENTATION</t>
+  </si>
+  <si>
+    <t>WEDNESDAY_HOURS</t>
+  </si>
+  <si>
+    <t>WORK_CONTRACTS_ATTACHED</t>
+  </si>
+  <si>
     <t>H-300-20114-511870</t>
   </si>
   <si>
-    <t>H-300-20108-494660</t>
-  </si>
-  <si>
     <t>H-2A</t>
   </si>
   <si>
     <t>Gold Sugar Bush, Inc.</t>
   </si>
   <si>
-    <t>Fresh Harvest, Inc.</t>
-  </si>
-  <si>
     <t>MAINE</t>
   </si>
   <si>
-    <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>A discretionary production bonus may apply.</t>
-  </si>
-  <si>
     <t>Somerset County</t>
   </si>
   <si>
-    <t>Heber</t>
-  </si>
-  <si>
-    <t>00000</t>
-  </si>
-  <si>
-    <t>92249</t>
-  </si>
-  <si>
     <t>https://seasonaljobs.dol.gov/job-order/H-300-20114-511870</t>
   </si>
   <si>
-    <t>https://seasonaljobs.dol.gov/job-order/H-300-20108-494660</t>
-  </si>
-  <si>
     <t>https://seasonaljobs.dol.gov/jobs/H-300-20114-511870</t>
-  </si>
-  <si>
-    <t>https://seasonaljobs.dol.gov/jobs/H-300-20108-494660</t>
   </si>
   <si>
     <t>MAPLE TREE FARM LABORER FOR NEW UNTAPPED LAND
 SEASONAL, FULL TIME, JOB IN A REMOTE AREA OF NORTHERN MAINE WORKING ON A MAPLE SYRUP FARM, PERFORMING DUTIES RELATED TO THE PREPARATION OF NEW CROPS OF TREES AND FARMLAND FOR THE HARVESTING OF MAPLE SAP. ALL TOOLS AND EQUIPMENT NECESSARY TO THE WORK WILL BE PROVIDED BY THE FARM OWNER. WORKERS WILL USE TOOLS AND EQUIPMENT TO GAIN ACCESS TO NEW CROPS OF TREES, TO FACILITATE THE INSTALLATION OF TUBING SYSTEMS IN NEW PRODUCTION AREAS, INSTALL, REPLACE, MAINTAIN TUBING SYSTEMS, TAP MAPLE TREES, EVALUATE HEALTH OF SUGAR MAPLES FOR POTENTIAL SAP PRODUCTION, MONITOR SAP FLOW LEVEL IN TUBING, PULL TAPS AT THE END OF THE SEASON AND CLEAN EQUIPMENT.</t>
+  </si>
+  <si>
+    <t>Maple Tree Farm Laborer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">407B Road St-Just, T9R18, mile 11
+</t>
+  </si>
+  <si>
+    <t>Somerset/bald Mountain-unorganized Ts</t>
+  </si>
+  <si>
+    <t>T9R18</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>St-Just Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carter Road T8R17, Mile 14 </t>
+  </si>
+  <si>
+    <t>ONSITE</t>
+  </si>
+  <si>
+    <t>T8R17</t>
+  </si>
+  <si>
+    <t>W=H</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>407B Road St-Just, T9R18, mile 11</t>
+  </si>
+  <si>
+    <t>goldsugarbushinc@gmail.com</t>
+  </si>
+  <si>
+    <t>Apify</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>14949 FM 1826</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>UNITED STATES OF AMERICA</t>
+  </si>
+  <si>
+    <t>info@ffbfirm.com</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Determination Issued - Certification</t>
+  </si>
+  <si>
+    <t>' Social Security, Federal Tax, Meals, and any willful destruction of property will also be deducted as allowable by Federal and State Law.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>18358 County Hwy D-20</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Compliance Officer</t>
+  </si>
+  <si>
+    <t>Alewelt</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20161-638892</t>
+  </si>
+  <si>
+    <t>Farmer Farmer &amp; Brown Law Firm PLLC</t>
+  </si>
+  <si>
+    <t>IOWA SUPREME COURT</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>47-2061.00</t>
+  </si>
+  <si>
+    <t>Construction Laborers</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Individual Employer</t>
+  </si>
+  <si>
+    <t>Attorney</t>
+  </si>
+  <si>
+    <t>H-300-20108-494660</t>
+  </si>
+  <si>
+    <t>Fresh Harvest, Inc.</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>A discretionary production bonus may apply.</t>
+  </si>
+  <si>
+    <t>Heber</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/job-order/H-300-20108-494660</t>
+  </si>
+  <si>
+    <t>https://seasonaljobs.dol.gov/jobs/H-300-20108-494660</t>
   </si>
   <si>
     <t>H-2A and corresponding domestic workers must be available to perform each of the following job activities in connection with the harvesting and farming operations:  
@@ -281,95 +714,154 @@
 Mercado: Under the direction of the field supervisor, the worker controls the machine by holding the latch and aligning the spindle to the desired direction. Speed is controlled by a handheld remote. The worker lowers the harvest boxes to pallets. Fills up machine with unfilled boxes to supply harvesting crew. The worker is also responsible for inspecting and sanitizing the machine. When the worker is not doing any of these functions, the worker is also harvesting product.</t>
   </si>
   <si>
-    <t>Maple Tree Farm Laborer</t>
-  </si>
-  <si>
     <t>Field Workers: Berries Machine &amp; Ground Harvest</t>
   </si>
   <si>
-    <t xml:space="preserve">407B Road St-Just, T9R18, mile 11
-</t>
-  </si>
-  <si>
     <t>Ranch 12: 95 Mc Fadden Road</t>
   </si>
   <si>
     <t>Salinas</t>
   </si>
   <si>
-    <t>Somerset/bald Mountain-unorganized Ts</t>
-  </si>
-  <si>
     <t>Monterey</t>
   </si>
   <si>
-    <t>T9R18</t>
-  </si>
-  <si>
     <t>93908</t>
   </si>
   <si>
-    <t>Maine</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
-    <t>St-Just Gate</t>
-  </si>
-  <si>
     <t>Hollister</t>
   </si>
   <si>
     <t>San Benito</t>
   </si>
   <si>
-    <t xml:space="preserve">Carter Road T8R17, Mile 14 </t>
-  </si>
-  <si>
     <t>San Benito Labor Camp, 3239 Southside Road</t>
   </si>
   <si>
-    <t>ONSITE</t>
-  </si>
-  <si>
     <t>Labor Camp</t>
   </si>
   <si>
-    <t>T8R17</t>
-  </si>
-  <si>
     <t>95023</t>
   </si>
   <si>
-    <t>W=H</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Workers must stand, sit, crouch, bend, reach, lift and carry items weighing up to 50 pounds in the course of performing required activities.  Workers must be able to listen, understand, and follow instructions of company supervisors and managers.</t>
   </si>
   <si>
-    <t>407B Road St-Just, T9R18, mile 11</t>
-  </si>
-  <si>
-    <t>goldsugarbushinc@gmail.com</t>
-  </si>
-  <si>
     <t>agdatahr@agdataglobal.com</t>
   </si>
   <si>
-    <t>Apify</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
     <t>street_center</t>
+  </si>
+  <si>
+    <t>406 WEST  400 SOUTH</t>
+  </si>
+  <si>
+    <t>HEYBURN</t>
+  </si>
+  <si>
+    <t>INFO@SNAKERIVERFARMERS.ORG</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>' Employer will make any required deductions as discussed in Section I / Items 3 &amp; 15, as well as deductions for loans (if any); long distance telephone charges (if any); reimbursement for damage caused to the housing by the individual worker(s) found to have been responsible for damage which is not the result of normal wear and tear related to habitation (if any); charges for reasonable costs related to the worker’s refusal or negligent failure to return all items furnished by the employer or due to the worker’s willful damage or destruction of such property; deductions directed by the worker by a voluntary assignment solely for the benefit of the worker to a creditor, donee, or other 3rd party (e.g. worker’s store/vendor accounts with merchants) wholly independent of the employer and from which neither the employer nor any person acting on his behalf or interest, directly or indirectly, derives any profit or benefit.</t>
+  </si>
+  <si>
+    <t>8895 W. Spangler Rd Note: No Mail Delivery</t>
+  </si>
+  <si>
+    <t>PO Box 524 Glenns Ferry, ID 83623</t>
+  </si>
+  <si>
+    <t>PO Box 524 Glenns Ferry ID 83623</t>
+  </si>
+  <si>
+    <t>Hammett</t>
+  </si>
+  <si>
+    <t>zitofarms@gmail.com</t>
+  </si>
+  <si>
+    <t>Mikki</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Zito</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>JO-A-300-20154-620944</t>
+  </si>
+  <si>
+    <t>SNAKE RIVER FARMERS ASSOCIATION INC</t>
+  </si>
+  <si>
+    <t>The highest applicable wage will be paid at the time the work is performed, for every hour or portion thereof worked during a work contract period, including any higher or lower adjustments published by the Department of Labor.</t>
+  </si>
+  <si>
+    <t>Snake River Farmers' Association, Inc.</t>
+  </si>
+  <si>
+    <t>info@snakeriverfarmers.org</t>
+  </si>
+  <si>
+    <t>Jillian</t>
+  </si>
+  <si>
+    <t>Hitt</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>45-2092.02</t>
+  </si>
+  <si>
+    <t>Farmworkers and Laborers, Crop</t>
+  </si>
+  <si>
+    <t>Joint Employer</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>www.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -377,7 +869,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -390,10 +882,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -401,6 +890,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,18 +927,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,27 +1029,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,24 +1063,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,558 +1239,1390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:FM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
+      <selection activeCell="FN1" sqref="FN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="40" max="40" width="22.6640625" customWidth="1"/>
-    <col min="43" max="43" width="46.5" customWidth="1"/>
-    <col min="44" max="44" width="28.5" customWidth="1"/>
-    <col min="46" max="46" width="29" customWidth="1"/>
-    <col min="58" max="58" width="47.1640625" customWidth="1"/>
-    <col min="59" max="59" width="43.33203125" customWidth="1"/>
-    <col min="60" max="60" width="28.5" customWidth="1"/>
-    <col min="61" max="61" width="33.5" customWidth="1"/>
-    <col min="62" max="62" width="38.6640625" customWidth="1"/>
-    <col min="63" max="63" width="31.33203125" customWidth="1"/>
-    <col min="64" max="64" width="14.83203125" customWidth="1"/>
-    <col min="65" max="65" width="20.6640625" customWidth="1"/>
+    <col min="42" max="42" width="41.83203125" customWidth="1"/>
+    <col min="43" max="43" width="27" customWidth="1"/>
+    <col min="72" max="72" width="23.1640625" customWidth="1"/>
+    <col min="169" max="169" width="28.1640625" customWidth="1"/>
+    <col min="170" max="170" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
+    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.29</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>44018</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>44322</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="2">
+        <v>171</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>43962</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>79</v>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>173</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>175</v>
+      </c>
+      <c r="U2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>57</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
       </c>
       <c r="Z2">
         <v>5</v>
       </c>
-      <c r="AA2" t="s">
-        <v>85</v>
+      <c r="AA2">
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="AE2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="AF2" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="AG2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="AH2" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="AI2" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="AK2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2">
+        <v>184</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM2">
         <v>5</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2</v>
       </c>
-      <c r="AN2" t="s">
-        <v>103</v>
-      </c>
       <c r="AO2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>106</v>
+        <v>185</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AS2" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="AT2" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="AU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV2">
-        <v>14182214761</v>
+        <v>179</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>188</v>
       </c>
       <c r="AW2">
         <v>14182214761</v>
       </c>
       <c r="AX2">
+        <v>14182214761</v>
+      </c>
+      <c r="AY2">
         <v>9</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AZ2" s="2">
         <v>43973</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>109</v>
-      </c>
       <c r="BA2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" t="b">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA2">
+        <v>15128942128</v>
+      </c>
+      <c r="CC2">
+        <v>78737</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>275</v>
+      </c>
+      <c r="DC2">
+        <v>16417322770</v>
+      </c>
+      <c r="DE2">
+        <v>50006</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>206</v>
+      </c>
+      <c r="DI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>9</v>
+      </c>
+      <c r="DN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>208</v>
+      </c>
+      <c r="DQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DX2">
+        <v>75</v>
+      </c>
+      <c r="DY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DZ2">
+        <v>12.68</v>
+      </c>
+      <c r="EA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB2">
+        <v>55</v>
+      </c>
+      <c r="EC2">
+        <v>12.68</v>
+      </c>
+      <c r="ED2">
+        <v>9</v>
+      </c>
+      <c r="EE2">
+        <v>11511</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="ER2" t="b">
+        <v>1</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>44053</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>44171</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>215</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>216</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="FA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="FC2">
+        <v>9</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>5</v>
+      </c>
+      <c r="FF2">
+        <v>40</v>
+      </c>
+      <c r="FG2">
+        <v>6</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>9</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>217</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>218</v>
+      </c>
+      <c r="FL2">
+        <v>9</v>
+      </c>
+      <c r="FM2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
+    <row r="3" spans="1:169" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.77</v>
       </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="2">
         <v>43997</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>44101</v>
       </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="2">
+        <v>221</v>
+      </c>
+      <c r="N3">
+        <v>92249</v>
+      </c>
+      <c r="O3" s="2">
         <v>43955</v>
       </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>80</v>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>224</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3">
+        <v>226</v>
+      </c>
+      <c r="U3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>35</v>
-      </c>
-      <c r="Y3">
-        <v>65</v>
       </c>
       <c r="Z3">
         <v>65</v>
       </c>
-      <c r="AA3" t="s">
-        <v>86</v>
+      <c r="AA3">
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="AC3" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="AD3" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="AE3" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="AG3" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="AH3" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="AI3" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="AJ3" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="AK3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3">
+        <v>237</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM3">
         <v>65</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>17</v>
       </c>
-      <c r="AN3" t="s">
-        <v>103</v>
-      </c>
       <c r="AO3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>86</v>
+        <v>185</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>238</v>
       </c>
       <c r="AR3" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="AS3" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="AU3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV3">
-        <v>17603525212</v>
+        <v>231</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>239</v>
       </c>
       <c r="AW3">
         <v>17603525212</v>
       </c>
       <c r="AX3">
+        <v>17603525212</v>
+      </c>
+      <c r="AY3">
         <v>16</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AZ3" s="2">
         <v>43973</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>109</v>
-      </c>
       <c r="BA3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>240</v>
       </c>
       <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
         <v>-121.59944400000001</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>36.651744999999998</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK3">
-        <v>1</v>
+      <c r="BK3" t="s">
+        <v>241</v>
       </c>
       <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
         <v>-121.402368</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>36.849379999999996</v>
+      </c>
+      <c r="BO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>244</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA3">
+        <v>12084369737</v>
+      </c>
+      <c r="CC3">
+        <v>83336</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>248</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>44011</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>249</v>
+      </c>
+      <c r="CK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>250</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>250</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>252</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>253</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>254</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>255</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>256</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>257</v>
+      </c>
+      <c r="DC3">
+        <v>12085992247</v>
+      </c>
+      <c r="DE3">
+        <v>83627</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>258</v>
+      </c>
+      <c r="DI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>8</v>
+      </c>
+      <c r="DN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>262</v>
+      </c>
+      <c r="DX3">
+        <v>100</v>
+      </c>
+      <c r="DY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DZ3">
+        <v>12.68</v>
+      </c>
+      <c r="EA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB3">
+        <v>55</v>
+      </c>
+      <c r="EC3">
+        <v>12.68</v>
+      </c>
+      <c r="ED3">
+        <v>8</v>
+      </c>
+      <c r="EE3">
+        <v>1112</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>212</v>
+      </c>
+      <c r="EH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>263</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>265</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>266</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>267</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>268</v>
+      </c>
+      <c r="ER3" t="b">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="2">
+        <v>44044</v>
+      </c>
+      <c r="ET3" s="2">
+        <v>44166</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>269</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>270</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>8</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>1</v>
+      </c>
+      <c r="FF3">
+        <v>4</v>
+      </c>
+      <c r="FG3">
+        <v>2</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>8</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>271</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>272</v>
+      </c>
+      <c r="FL3">
+        <v>8</v>
+      </c>
+      <c r="FM3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="R3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{CE9DEC1B-5AE1-D945-B222-B8ECEB52DCF8}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_files/inaccurates_geocoded.xlsx
+++ b/excel_files/inaccurates_geocoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B099C-8B48-3045-8708-C7468F57BC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5484EA81-DE27-5E45-9F12-20A0C27B427F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -34,18 +34,12 @@
     <t>TRADE_NAME_DBA</t>
   </si>
   <si>
-    <t>Worksite State</t>
-  </si>
-  <si>
     <t>TOTAL_WORKERS_NEEDED</t>
   </si>
   <si>
     <t>WAGE_OFFER</t>
   </si>
   <si>
-    <t>FREQUENCY_OF_PAY</t>
-  </si>
-  <si>
     <t>EMPLOYMENT_BEGIN_DATE</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>Job Order Link</t>
-  </si>
-  <si>
-    <t>Job Posted At</t>
   </si>
   <si>
     <t>Job Summary Link</t>
@@ -688,9 +679,6 @@
   </si>
   <si>
     <t>CALIFORNIA</t>
-  </si>
-  <si>
-    <t>A discretionary production bonus may apply.</t>
   </si>
   <si>
     <t>Heber</t>
@@ -869,7 +857,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -901,7 +889,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -924,18 +912,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1239,608 +1241,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FM3"/>
+  <dimension ref="A1:FJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
-      <selection activeCell="FN1" sqref="FN1"/>
+    <sheetView tabSelected="1" topLeftCell="FG1" workbookViewId="0">
+      <selection activeCell="FJ1" sqref="FJ1:FJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="42" max="42" width="41.83203125" customWidth="1"/>
-    <col min="43" max="43" width="27" customWidth="1"/>
-    <col min="72" max="72" width="23.1640625" customWidth="1"/>
-    <col min="169" max="169" width="28.1640625" customWidth="1"/>
-    <col min="170" max="170" width="8.83203125" customWidth="1"/>
+    <col min="38" max="38" width="41.83203125" customWidth="1"/>
+    <col min="39" max="39" width="27" customWidth="1"/>
+    <col min="68" max="68" width="23.1640625" customWidth="1"/>
+    <col min="165" max="165" width="28.1640625" customWidth="1"/>
+    <col min="166" max="166" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2">
+        <v>14.29</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44018</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44322</v>
+      </c>
+      <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43962</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>171</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>14.29</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44018</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44322</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>172</v>
-      </c>
-      <c r="M2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>43962</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>173</v>
       </c>
-      <c r="S2" t="s">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>57</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
         <v>174</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>57</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
       </c>
       <c r="AB2" t="s">
         <v>177</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AD2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AE2" t="s">
         <v>179</v>
@@ -1852,393 +1852,384 @@
         <v>181</v>
       </c>
       <c r="AH2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="s">
         <v>182</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>183</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN2" t="s">
         <v>184</v>
       </c>
-      <c r="AL2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM2">
-        <v>5</v>
-      </c>
-      <c r="AN2">
-        <v>2</v>
-      </c>
       <c r="AO2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR2" t="s">
         <v>185</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2">
+        <v>14182214761</v>
+      </c>
+      <c r="AT2">
+        <v>14182214761</v>
+      </c>
+      <c r="AU2">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>43973</v>
+      </c>
+      <c r="AW2" t="s">
         <v>186</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
         <v>187</v>
       </c>
-      <c r="AS2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="BB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
         <v>188</v>
       </c>
-      <c r="AW2">
-        <v>14182214761</v>
-      </c>
-      <c r="AX2">
-        <v>14182214761</v>
-      </c>
-      <c r="AY2">
-        <v>9</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>43973</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BQ2" t="s">
         <v>189</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BR2" t="s">
         <v>190</v>
-      </c>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="b">
-        <v>1</v>
       </c>
       <c r="BS2" t="s">
         <v>191</v>
       </c>
+      <c r="BT2" t="s">
+        <v>192</v>
+      </c>
       <c r="BU2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV2" t="s">
         <v>193</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BW2">
+        <v>15128942128</v>
+      </c>
+      <c r="BY2">
+        <v>78737</v>
+      </c>
+      <c r="CA2" t="s">
         <v>194</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CB2" t="s">
         <v>195</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>44012</v>
+      </c>
+      <c r="CF2" t="s">
         <v>196</v>
       </c>
-      <c r="CA2">
-        <v>15128942128</v>
-      </c>
-      <c r="CC2">
-        <v>78737</v>
-      </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="s">
         <v>197</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="s">
         <v>198</v>
       </c>
-      <c r="CG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2">
-        <v>44012</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR2" t="s">
         <v>199</v>
       </c>
-      <c r="CK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="s">
+      <c r="CS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>191</v>
+      </c>
+      <c r="CU2" t="s">
         <v>200</v>
       </c>
-      <c r="CN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="s">
+      <c r="CV2" t="s">
         <v>201</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>202</v>
       </c>
-      <c r="CW2" t="s">
-        <v>193</v>
-      </c>
       <c r="CX2" t="s">
-        <v>194</v>
-      </c>
-      <c r="CY2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CY2">
+        <v>16417322770</v>
+      </c>
+      <c r="DA2">
+        <v>50006</v>
+      </c>
+      <c r="DC2" t="s">
         <v>203</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DE2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>9</v>
+      </c>
+      <c r="DJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DK2" t="s">
         <v>204</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DL2" t="s">
         <v>205</v>
       </c>
-      <c r="DB2" t="s">
-        <v>275</v>
-      </c>
-      <c r="DC2">
-        <v>16417322770</v>
-      </c>
-      <c r="DE2">
-        <v>50006</v>
-      </c>
-      <c r="DG2" t="s">
+      <c r="DM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="s">
         <v>206</v>
       </c>
-      <c r="DI2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM2">
+      <c r="DR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT2">
+        <v>75</v>
+      </c>
+      <c r="DU2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DV2">
+        <v>12.68</v>
+      </c>
+      <c r="DW2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DX2">
+        <v>55</v>
+      </c>
+      <c r="DY2">
+        <v>12.68</v>
+      </c>
+      <c r="DZ2">
         <v>9</v>
       </c>
-      <c r="DN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>207</v>
-      </c>
-      <c r="DP2" t="s">
+      <c r="EA2">
+        <v>11511</v>
+      </c>
+      <c r="EB2" t="s">
         <v>208</v>
       </c>
-      <c r="DQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="s">
+      <c r="EC2" t="s">
         <v>209</v>
       </c>
-      <c r="DV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="s">
+      <c r="ED2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="s">
         <v>210</v>
       </c>
-      <c r="DX2">
-        <v>75</v>
-      </c>
-      <c r="DY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ2">
-        <v>12.68</v>
-      </c>
-      <c r="EA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB2">
-        <v>55</v>
-      </c>
-      <c r="EC2">
-        <v>12.68</v>
-      </c>
-      <c r="ED2">
+      <c r="EN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>44053</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>44171</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>211</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>212</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>213</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EY2">
         <v>9</v>
       </c>
-      <c r="EE2">
-        <v>11511</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>211</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>212</v>
-      </c>
-      <c r="EH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>213</v>
-      </c>
-      <c r="ER2" t="b">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="2">
-        <v>44053</v>
-      </c>
-      <c r="ET2" s="2">
-        <v>44171</v>
-      </c>
-      <c r="EU2">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="s">
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>5</v>
+      </c>
+      <c r="FB2">
+        <v>40</v>
+      </c>
+      <c r="FC2">
+        <v>6</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>9</v>
+      </c>
+      <c r="FF2" t="s">
         <v>214</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FG2" t="s">
         <v>215</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FH2">
+        <v>9</v>
+      </c>
+      <c r="FI2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="EY2">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FC2">
-        <v>9</v>
-      </c>
-      <c r="FD2">
-        <v>0</v>
-      </c>
-      <c r="FE2">
-        <v>5</v>
-      </c>
-      <c r="FF2">
-        <v>40</v>
-      </c>
-      <c r="FG2">
-        <v>6</v>
-      </c>
-      <c r="FH2">
-        <v>0</v>
-      </c>
-      <c r="FI2">
-        <v>9</v>
-      </c>
-      <c r="FJ2" t="s">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>14.77</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" t="s">
         <v>218</v>
       </c>
-      <c r="FL2">
-        <v>9</v>
-      </c>
-      <c r="FM2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:169" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="K3">
+        <v>92249</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43955</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>220</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" t="s">
         <v>221</v>
       </c>
-      <c r="G3">
+      <c r="P3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>35</v>
+      </c>
+      <c r="V3">
         <v>65</v>
       </c>
-      <c r="H3">
-        <v>14.77</v>
-      </c>
-      <c r="I3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="2">
-        <v>43997</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44101</v>
-      </c>
-      <c r="L3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" t="s">
-        <v>221</v>
-      </c>
-      <c r="N3">
-        <v>92249</v>
-      </c>
-      <c r="O3" s="2">
-        <v>43955</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="W3">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
         <v>224</v>
       </c>
-      <c r="S3" t="s">
+      <c r="Y3" t="s">
         <v>225</v>
       </c>
-      <c r="T3" t="s">
+      <c r="Z3" t="s">
         <v>226</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" t="s">
         <v>227</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>35</v>
-      </c>
-      <c r="Z3">
-        <v>65</v>
-      </c>
-      <c r="AA3">
-        <v>65</v>
       </c>
       <c r="AB3" t="s">
         <v>228</v>
@@ -2259,286 +2250,286 @@
         <v>233</v>
       </c>
       <c r="AH3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI3">
+        <v>65</v>
+      </c>
+      <c r="AJ3">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL3" t="s">
         <v>234</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AN3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR3" t="s">
         <v>235</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AS3">
+        <v>17603525212</v>
+      </c>
+      <c r="AT3">
+        <v>17603525212</v>
+      </c>
+      <c r="AU3">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>43973</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
         <v>236</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>-121.59944400000001</v>
+      </c>
+      <c r="BF3">
+        <v>36.651744999999998</v>
+      </c>
+      <c r="BG3" t="s">
         <v>237</v>
       </c>
-      <c r="AL3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM3">
-        <v>65</v>
-      </c>
-      <c r="AN3">
-        <v>17</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>-121.402368</v>
+      </c>
+      <c r="BJ3">
+        <v>36.849379999999996</v>
+      </c>
+      <c r="BK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
         <v>238</v>
       </c>
-      <c r="AR3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="BP3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>239</v>
       </c>
-      <c r="AW3">
-        <v>17603525212</v>
-      </c>
-      <c r="AX3">
-        <v>17603525212</v>
-      </c>
-      <c r="AY3">
-        <v>16</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>43973</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="BR3" t="s">
         <v>190</v>
       </c>
-      <c r="BF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BS3" t="s">
         <v>240</v>
       </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
-        <v>-121.59944400000001</v>
-      </c>
-      <c r="BJ3">
-        <v>36.651744999999998</v>
-      </c>
-      <c r="BK3" t="s">
+      <c r="BT3" t="s">
         <v>241</v>
       </c>
-      <c r="BL3">
-        <v>1</v>
-      </c>
-      <c r="BM3">
-        <v>-121.402368</v>
-      </c>
-      <c r="BN3">
-        <v>36.849379999999996</v>
-      </c>
-      <c r="BO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="s">
+      <c r="BU3" t="s">
         <v>242</v>
       </c>
-      <c r="BT3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>243</v>
       </c>
-      <c r="BV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BW3" t="s">
+      <c r="BW3">
+        <v>12084369737</v>
+      </c>
+      <c r="BY3">
+        <v>83336</v>
+      </c>
+      <c r="CA3" t="s">
         <v>244</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CB3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>44011</v>
+      </c>
+      <c r="CF3" t="s">
         <v>245</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="s">
         <v>246</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CL3" t="s">
         <v>247</v>
       </c>
-      <c r="CA3">
-        <v>12084369737</v>
-      </c>
-      <c r="CC3">
-        <v>83336</v>
-      </c>
-      <c r="CE3" t="s">
+      <c r="CM3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>246</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>248</v>
       </c>
-      <c r="CF3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>44011</v>
-      </c>
-      <c r="CJ3" t="s">
+      <c r="CR3" t="s">
         <v>249</v>
       </c>
-      <c r="CK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>193</v>
+      <c r="CS3" t="s">
+        <v>190</v>
       </c>
       <c r="CT3" t="s">
         <v>250</v>
       </c>
       <c r="CU3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CV3" t="s">
         <v>252</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CW3" t="s">
         <v>253</v>
       </c>
-      <c r="CW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX3" t="s">
+      <c r="CY3">
+        <v>12085992247</v>
+      </c>
+      <c r="DA3">
+        <v>83627</v>
+      </c>
+      <c r="DC3" t="s">
         <v>254</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="DE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>8</v>
+      </c>
+      <c r="DJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="s">
         <v>255</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="DL3" t="s">
         <v>256</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
         <v>257</v>
       </c>
-      <c r="DC3">
-        <v>12085992247</v>
-      </c>
-      <c r="DE3">
-        <v>83627</v>
-      </c>
-      <c r="DG3" t="s">
+      <c r="DR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DS3" t="s">
         <v>258</v>
       </c>
-      <c r="DI3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM3">
+      <c r="DT3">
+        <v>100</v>
+      </c>
+      <c r="DU3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DV3">
+        <v>12.68</v>
+      </c>
+      <c r="DW3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DX3">
+        <v>55</v>
+      </c>
+      <c r="DY3">
+        <v>12.68</v>
+      </c>
+      <c r="DZ3">
         <v>8</v>
       </c>
-      <c r="DN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="s">
+      <c r="EA3">
+        <v>1112</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>209</v>
+      </c>
+      <c r="ED3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>210</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="s">
         <v>259</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="EI3" t="s">
         <v>260</v>
       </c>
-      <c r="DQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="s">
+      <c r="EJ3" t="s">
         <v>261</v>
       </c>
-      <c r="DV3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="s">
+      <c r="EK3" t="s">
         <v>262</v>
-      </c>
-      <c r="DX3">
-        <v>100</v>
-      </c>
-      <c r="DY3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ3">
-        <v>12.68</v>
-      </c>
-      <c r="EA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB3">
-        <v>55</v>
-      </c>
-      <c r="EC3">
-        <v>12.68</v>
-      </c>
-      <c r="ED3">
-        <v>8</v>
-      </c>
-      <c r="EE3">
-        <v>1112</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>212</v>
-      </c>
-      <c r="EH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>213</v>
-      </c>
-      <c r="EK3">
-        <v>0</v>
       </c>
       <c r="EL3" t="s">
         <v>263</v>
@@ -2546,82 +2537,70 @@
       <c r="EM3" t="s">
         <v>264</v>
       </c>
-      <c r="EN3" t="s">
+      <c r="EN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="2">
+        <v>44044</v>
+      </c>
+      <c r="EP3" s="2">
+        <v>44166</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="s">
         <v>265</v>
       </c>
-      <c r="EO3" t="s">
+      <c r="ES3" t="s">
         <v>266</v>
       </c>
-      <c r="EP3" t="s">
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>8</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>1</v>
+      </c>
+      <c r="FB3">
+        <v>4</v>
+      </c>
+      <c r="FC3">
+        <v>2</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>8</v>
+      </c>
+      <c r="FF3" t="s">
         <v>267</v>
       </c>
-      <c r="EQ3" t="s">
+      <c r="FG3" t="s">
         <v>268</v>
       </c>
-      <c r="ER3" t="b">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="2">
-        <v>44044</v>
-      </c>
-      <c r="ET3" s="2">
-        <v>44166</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>269</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>270</v>
-      </c>
-      <c r="EY3">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC3">
+      <c r="FH3">
         <v>8</v>
       </c>
-      <c r="FD3">
-        <v>0</v>
-      </c>
-      <c r="FE3">
-        <v>1</v>
-      </c>
-      <c r="FF3">
-        <v>4</v>
-      </c>
-      <c r="FG3">
-        <v>2</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>8</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>271</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>272</v>
-      </c>
-      <c r="FL3">
-        <v>8</v>
-      </c>
-      <c r="FM3" t="b">
+      <c r="FI3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{CE9DEC1B-5AE1-D945-B222-B8ECEB52DCF8}"/>
+    <hyperlink ref="AM2" r:id="rId1" xr:uid="{CE9DEC1B-5AE1-D945-B222-B8ECEB52DCF8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
